--- a/SandP global credit 2021.xlsx
+++ b/SandP global credit 2021.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenwi\AnacondaProjects\QuantRisk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8D2084-0EE3-426D-9343-AC21657205F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C89573-2973-4381-911B-5A3B1CDE8ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{FEA4F07E-6E80-40E1-A89D-9D1A13166D3C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{FEA4F07E-6E80-40E1-A89D-9D1A13166D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 24" sheetId="1" r:id="rId1"/>
+    <sheet name="Sov Table 17" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>AAA</t>
   </si>
@@ -75,6 +76,12 @@
   <si>
     <t>Rating/Years</t>
   </si>
+  <si>
+    <t>Source: https://www.spglobal.com/ratings/en/research/articles/220504-default-transition-and-recovery-2021-annual-global-sovereign-default-and-rating-transition-study-12350530</t>
+  </si>
+  <si>
+    <t>Sovereign Foreign Currency Cumulative Average Default Rates Without Rating Modifiers (1975-2021)</t>
+  </si>
 </sst>
 </file>
 
@@ -109,8 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B753D15E-5EAF-4161-9B02-4015E1A943FF}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1006,4 +1016,767 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4ECF9C-A5B4-4637-BCBB-50D1C862581E}">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.38</v>
+      </c>
+      <c r="G4">
+        <v>2.42</v>
+      </c>
+      <c r="H4">
+        <v>37.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3.14</v>
+      </c>
+      <c r="K4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.41</v>
+      </c>
+      <c r="F5">
+        <v>1.37</v>
+      </c>
+      <c r="G5">
+        <v>6.12</v>
+      </c>
+      <c r="H5">
+        <v>44.2</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>5.77</v>
+      </c>
+      <c r="K5">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.23</v>
+      </c>
+      <c r="E6">
+        <v>1.07</v>
+      </c>
+      <c r="F6">
+        <v>1.98</v>
+      </c>
+      <c r="G6">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="H6">
+        <v>51.48</v>
+      </c>
+      <c r="I6">
+        <v>0.31</v>
+      </c>
+      <c r="J6">
+        <v>8.09</v>
+      </c>
+      <c r="K6">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.72</v>
+      </c>
+      <c r="E7">
+        <v>1.53</v>
+      </c>
+      <c r="F7">
+        <v>2.61</v>
+      </c>
+      <c r="G7">
+        <v>12.65</v>
+      </c>
+      <c r="H7">
+        <v>54.03</v>
+      </c>
+      <c r="I7">
+        <v>0.53</v>
+      </c>
+      <c r="J7">
+        <v>10.07</v>
+      </c>
+      <c r="K7">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1.23</v>
+      </c>
+      <c r="E8">
+        <v>2.02</v>
+      </c>
+      <c r="F8">
+        <v>3.94</v>
+      </c>
+      <c r="G8">
+        <v>15.38</v>
+      </c>
+      <c r="H8">
+        <v>57.09</v>
+      </c>
+      <c r="I8">
+        <v>0.76</v>
+      </c>
+      <c r="J8">
+        <v>12.17</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.76</v>
+      </c>
+      <c r="E9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9">
+        <v>5.34</v>
+      </c>
+      <c r="G9">
+        <v>17.7</v>
+      </c>
+      <c r="H9">
+        <v>63.22</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>14.18</v>
+      </c>
+      <c r="K9">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2.33</v>
+      </c>
+      <c r="E10">
+        <v>3.11</v>
+      </c>
+      <c r="F10">
+        <v>6.82</v>
+      </c>
+      <c r="G10">
+        <v>20.21</v>
+      </c>
+      <c r="H10">
+        <v>66.569999999999993</v>
+      </c>
+      <c r="I10">
+        <v>1.25</v>
+      </c>
+      <c r="J10">
+        <v>16.23</v>
+      </c>
+      <c r="K10">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2.92</v>
+      </c>
+      <c r="E11">
+        <v>3.41</v>
+      </c>
+      <c r="F11">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="G11">
+        <v>22.69</v>
+      </c>
+      <c r="H11">
+        <v>66.569999999999993</v>
+      </c>
+      <c r="I11">
+        <v>1.45</v>
+      </c>
+      <c r="J11">
+        <v>18.28</v>
+      </c>
+      <c r="K11">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3.53</v>
+      </c>
+      <c r="E12">
+        <v>3.74</v>
+      </c>
+      <c r="F12">
+        <v>10.01</v>
+      </c>
+      <c r="G12">
+        <v>24.58</v>
+      </c>
+      <c r="H12">
+        <v>66.569999999999993</v>
+      </c>
+      <c r="I12">
+        <v>1.65</v>
+      </c>
+      <c r="J12">
+        <v>19.84</v>
+      </c>
+      <c r="K12">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4.18</v>
+      </c>
+      <c r="E13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F13">
+        <v>10.89</v>
+      </c>
+      <c r="G13">
+        <v>26.34</v>
+      </c>
+      <c r="H13">
+        <v>66.569999999999993</v>
+      </c>
+      <c r="I13">
+        <v>1.87</v>
+      </c>
+      <c r="J13">
+        <v>21.11</v>
+      </c>
+      <c r="K13">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E14">
+        <v>4.5</v>
+      </c>
+      <c r="F14">
+        <v>11.53</v>
+      </c>
+      <c r="G14">
+        <v>28.28</v>
+      </c>
+      <c r="H14">
+        <v>69.91</v>
+      </c>
+      <c r="I14">
+        <v>2.1</v>
+      </c>
+      <c r="J14">
+        <v>22.47</v>
+      </c>
+      <c r="K14">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5.58</v>
+      </c>
+      <c r="E15">
+        <v>4.92</v>
+      </c>
+      <c r="F15">
+        <v>12.21</v>
+      </c>
+      <c r="G15">
+        <v>30.09</v>
+      </c>
+      <c r="H15">
+        <v>69.91</v>
+      </c>
+      <c r="I15">
+        <v>2.34</v>
+      </c>
+      <c r="J15">
+        <v>23.64</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>6.37</v>
+      </c>
+      <c r="E16">
+        <v>5.39</v>
+      </c>
+      <c r="F16">
+        <v>12.96</v>
+      </c>
+      <c r="G16">
+        <v>31.32</v>
+      </c>
+      <c r="H16">
+        <v>69.91</v>
+      </c>
+      <c r="I16">
+        <v>2.6</v>
+      </c>
+      <c r="J16">
+        <v>24.56</v>
+      </c>
+      <c r="K16">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>6.8</v>
+      </c>
+      <c r="E17">
+        <v>6.39</v>
+      </c>
+      <c r="F17">
+        <v>13.77</v>
+      </c>
+      <c r="G17">
+        <v>32.72</v>
+      </c>
+      <c r="H17">
+        <v>69.91</v>
+      </c>
+      <c r="I17">
+        <v>2.87</v>
+      </c>
+      <c r="J17">
+        <v>25.58</v>
+      </c>
+      <c r="K17">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>7.74</v>
+      </c>
+      <c r="E18">
+        <v>6.94</v>
+      </c>
+      <c r="F18">
+        <v>14.22</v>
+      </c>
+      <c r="G18">
+        <v>34.33</v>
+      </c>
+      <c r="H18">
+        <v>69.91</v>
+      </c>
+      <c r="I18">
+        <v>3.17</v>
+      </c>
+      <c r="J18">
+        <v>26.5</v>
+      </c>
+      <c r="K18">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>